--- a/biology/Botanique/Olea_capensis_subsp._enervis/Olea_capensis_subsp._enervis.xlsx
+++ b/biology/Botanique/Olea_capensis_subsp._enervis/Olea_capensis_subsp._enervis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Olea capensis subsp. enervis est une sous-espèce de l'espèce Olea capensis laquelle appartient à la famille des Oleaceae. On l'appelle le bois de fer noir. C'est le bois le plus lourd connu[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Olea capensis subsp. enervis est une sous-espèce de l'espèce Olea capensis laquelle appartient à la famille des Oleaceae. On l'appelle le bois de fer noir. C'est le bois le plus lourd connu.
 On trouve ces oliviers en Afrique australe :  Afrique du Sud (KwaZulu-Natal, Transvaal) ; Swaziland.
 </t>
         </is>
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bien que largement répandu, plus qu'Olea capensis subsp. capensis, cette sous-espèce d'olivier se distingue de l'autre par des feuilles plus régulières et en moyenne plus petites[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bien que largement répandu, plus qu'Olea capensis subsp. capensis, cette sous-espèce d'olivier se distingue de l'autre par des feuilles plus régulières et en moyenne plus petites.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un bois précieux[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un bois précieux.
 </t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(≡) Olea enervis Harv. (basionyme)</t>
         </is>
@@ -605,6 +623,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
